--- a/data/Map136.xlsx
+++ b/data/Map136.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>アーコ</t>
   </si>
@@ -259,6 +259,9 @@
     <t>シィナ</t>
   </si>
   <si>
+    <t>Sina</t>
+  </si>
+  <si>
     <t>シィナ　最初の脱獄で見つかる　騎乗位</t>
   </si>
   <si>
@@ -297,6 +300,9 @@
   </si>
   <si>
     <t>リリー</t>
+  </si>
+  <si>
+    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>リリー　誘惑　オナさせ</t>
@@ -1144,7 +1150,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A214"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,1074 +1158,1092 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map136.xlsx
+++ b/data/Map136.xlsx
@@ -259,7 +259,7 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>シィナ　最初の脱獄で見つかる　騎乗位</t>
@@ -302,7 +302,7 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>リリー　誘惑　オナさせ</t>

--- a/data/Map136.xlsx
+++ b/data/Map136.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>アーコ</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>はい</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>やっぱりやめておく</t>
@@ -1150,7 +1153,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1158,122 +1161,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1281,22 +1290,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1304,946 +1313,961 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map136.xlsx
+++ b/data/Map136.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t>アーコ</t>
   </si>
@@ -186,6 +186,11 @@
 楽しんで頂けたでしょうか？</t>
   </si>
   <si>
+    <t>エンディングは5つです。
+SAN値によってイベントが発生したりしなかったりしますので
+搾られたり搾られなかったりして探して見てくださいね！</t>
+  </si>
+  <si>
     <t>現在のエンディング数は4つです。
 SAN値によってイベントが発生したりしなかったりしますので
 搾られたり搾られなかったりして探して見てくださいね！</t>
@@ -196,10 +201,6 @@
 ぜひ見てくださいませ！※女主人公限定</t>
   </si>
   <si>
-    <t>今後も色々と追加の予定がありますので
-アップデートをお待ちくださいませ。</t>
-  </si>
-  <si>
     <t>回想を全て解放します。
 解放すると本編には戻れません。
 また、シーン前の誘惑イベントなどは見れません。</t>
@@ -216,16 +217,17 @@
     <t>やめておく</t>
   </si>
   <si>
-    <t>本当によろしいですか？</t>
+    <t>本当によろしいですか？
+※アニメビューア、ミニマムビューアは解放されません</t>
   </si>
   <si>
     <t>はい</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>やっぱりやめておく</t>
+  </si>
+  <si>
+    <t>二部クリア</t>
   </si>
   <si>
     <t>EV007</t>
@@ -259,6 +261,9 @@
 ・武器　・重要なアイテム　・レベル</t>
   </si>
   <si>
+    <t>2部から始める</t>
+  </si>
+  <si>
     <t>シィナ</t>
   </si>
   <si>
@@ -637,10 +642,36 @@
 お風呂でピザ</t>
   </si>
   <si>
+    <t>ライムの日記</t>
+  </si>
+  <si>
+    <t>ヒントを見る</t>
+  </si>
+  <si>
+    <t>自力で探す</t>
+  </si>
+  <si>
+    <t>浴場で入手できます。</t>
+  </si>
+  <si>
+    <t>答えを見る</t>
+  </si>
+  <si>
+    <t>浴場の左側へフックショットで飛び
+暖炉の火を氷属性の攻撃で全て消してください。</t>
+  </si>
+  <si>
     <t>ライムの日記
 水かけ論</t>
   </si>
   <si>
+    <t>応接室で入手できます。</t>
+  </si>
+  <si>
+    <t>応接室の暖炉の火を氷属性の攻撃で消し、
+隠し通路から倉庫に入ってください。</t>
+  </si>
+  <si>
     <t>ライムの日記
 見られているような・・・</t>
   </si>
@@ -649,8 +680,11 @@
 誘惑して脱獄</t>
   </si>
   <si>
-    <t>リリーの日記
-※ベランダにて入手</t>
+    <t>バルコニーで入手できます。</t>
+  </si>
+  <si>
+    <t>バルコニーの左端からプラスショットを装備したまま
+フックショットを撃って煙突に引っかけてください。</t>
   </si>
   <si>
     <t>リリーの日記
@@ -673,8 +707,19 @@
 ライム式ダイエット</t>
   </si>
   <si>
+    <t>メイド室で入手できます。</t>
+  </si>
+  <si>
+    <t>右下のベッドのクマのぬいぐるみを複数回調べてください。</t>
+  </si>
+  <si>
     <t>リリーの日記
 恋愛小説</t>
+  </si>
+  <si>
+    <t>→日記
+一度読むと解放
+全て読むと2部シナリオが解放される</t>
   </si>
   <si>
     <t>→日記
@@ -698,6 +743,12 @@
 知識VS直感</t>
   </si>
   <si>
+    <t>倉庫で入手できます。</t>
+  </si>
+  <si>
+    <t>灯りを付けることで読めるようになります。</t>
+  </si>
+  <si>
     <t>リリーの日記
 オークはどこから</t>
   </si>
@@ -743,6 +794,10 @@
   </si>
   <si>
     <t>アーコの帳簿
+アーコに15000G貢ぐとアーコの近くに帳簿が出現</t>
+  </si>
+  <si>
+    <t>アーコの帳簿
 アーコに30000G貢ぐとアーコの近くに帳簿が出現</t>
   </si>
   <si>
@@ -767,11 +822,19 @@
   </si>
   <si>
     <t>ライムの日記
+※ライム依存度が3以上でライムの部屋に出現</t>
+  </si>
+  <si>
+    <t>ライムの日記
 ※ライム依存度が4以上でライムの部屋に出現</t>
   </si>
   <si>
     <t>ライムの日記
 脱走者</t>
+  </si>
+  <si>
+    <t>シィナの落書き帳
+※シィナ依存度が3以上でシィナの部屋に出現</t>
   </si>
   <si>
     <t>シィナの落書き帳
@@ -815,6 +878,284 @@
   </si>
   <si>
     <t>読む</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+淫魔の生態</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+機械の使い方</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+淫魔化実験成功！</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+自己紹介</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+人質で実験　その1</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+人質で実験　その2
+※男女でイベント分岐</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+魔力の集め方</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+創作料理</t>
+  </si>
+  <si>
+    <t>EV107</t>
+  </si>
+  <si>
+    <t>エンディング5はまだ見ていません。
+・リリー達の日記を全部読んでからリリーを倒す
+・第2部シナリオをクリアする</t>
+  </si>
+  <si>
+    <t>エンディング5『人間と淫魔の違い』
+・屋敷の真実を暴きみんなを救出する</t>
+  </si>
+  <si>
+    <t>チョコレとベルーチェを倒し研究所は崩壊した。
+リリー達はもう屋敷には住めなくなったが
+それはそれで楽しくやっていくだろう。</t>
+  </si>
+  <si>
+    <t>共に行動をして少しは分かり合えたような気がしたが
+人と淫魔はやはり敵同士。
+3淫魔と兄妹はそれぞれの道へと進んでいくのだった・・・</t>
+  </si>
+  <si>
+    <t>→第2部
+ザコ</t>
+  </si>
+  <si>
+    <t>→第2部の日記
+全て読むとミニマムビューアが解放される</t>
+  </si>
+  <si>
+    <t>とら</t>
+  </si>
+  <si>
+    <t>つよとら
+またたびでラリっていないとらを倒すと解放</t>
+  </si>
+  <si>
+    <t>つよとら
+・通常敗北</t>
+  </si>
+  <si>
+    <t>よわとら
+・通常敗北</t>
+  </si>
+  <si>
+    <t>オーク
+・通常敗北</t>
+  </si>
+  <si>
+    <t>マンティス
+・通常敗北</t>
+  </si>
+  <si>
+    <t>ウィッチラミア
+・通常敗北</t>
+  </si>
+  <si>
+    <t>とら　ミニマム
+・全身パイズリ</t>
+  </si>
+  <si>
+    <t>マンティス　ミニマム
+・捕食フェラ</t>
+  </si>
+  <si>
+    <t>オーク　ミニマム
+・全身挿入</t>
+  </si>
+  <si>
+    <t>ウィッチラミア　ミニマム
+・全身パイズリ</t>
+  </si>
+  <si>
+    <t>チョコレの実験記録
+旗上げ</t>
+  </si>
+  <si>
+    <t>→第2部
+ボス</t>
+  </si>
+  <si>
+    <t>チョコレ　イカせ合い
+・通常敗北</t>
+  </si>
+  <si>
+    <t>チョコレ　接触1　顔舐め</t>
+  </si>
+  <si>
+    <t>チョコレ　接触2　パフパフ</t>
+  </si>
+  <si>
+    <t>チョコレ　媚薬ばら撒き　クンニ</t>
+  </si>
+  <si>
+    <t>チョコレ　最後の誘惑　騎乗位</t>
+  </si>
+  <si>
+    <t>ベルーチェ　接触1　キス</t>
+  </si>
+  <si>
+    <t>ベルーチェ　接触2　手コキ</t>
+  </si>
+  <si>
+    <t>ベルーチェ　遠距離誘惑　胸見せ</t>
+  </si>
+  <si>
+    <t>ベルーチェ　命乞い挿入</t>
+  </si>
+  <si>
+    <t>チョコレ　ベルーチェ　体力0敗北</t>
+  </si>
+  <si>
+    <t>リリー　お礼　キス手コキ</t>
+  </si>
+  <si>
+    <t>→その他の日記</t>
+  </si>
+  <si>
+    <t>アニメ回想</t>
+  </si>
+  <si>
+    <t>アニメビューアは使用できません。
+解放されると作中のアニメを自由に再生することができます。
+※全てのエンディングを見ると解放</t>
+  </si>
+  <si>
+    <t>アニメビューアを使用しますか？
+※作中のアニメを自由に見ることが出来ます。</t>
+  </si>
+  <si>
+    <t>使用する</t>
+  </si>
+  <si>
+    <t>\&gt;キャラクターIDを選んでください　1～33</t>
+  </si>
+  <si>
+    <t>キャラID</t>
+  </si>
+  <si>
+    <t>アニメを見る</t>
+  </si>
+  <si>
+    <t>効果音</t>
+  </si>
+  <si>
+    <t>待機モーション</t>
+  </si>
+  <si>
+    <t>解説を読む</t>
+  </si>
+  <si>
+    <t>終わる</t>
+  </si>
+  <si>
+    <t>操作説明を表示する</t>
+  </si>
+  <si>
+    <t>操作説明を隠す</t>
+  </si>
+  <si>
+    <t>手コキ系</t>
+  </si>
+  <si>
+    <t>フェラ系</t>
+  </si>
+  <si>
+    <t>パイズリ系</t>
+  </si>
+  <si>
+    <t>ピストン系</t>
+  </si>
+  <si>
+    <t>射精音</t>
+  </si>
+  <si>
+    <t>無し</t>
+  </si>
+  <si>
+    <t>強気</t>
+  </si>
+  <si>
+    <t>弱気</t>
+  </si>
+  <si>
+    <t>絶頂</t>
+  </si>
+  <si>
+    <t>まずキャラクターIDを選択して見たいキャラを決定します。
+1つのIDにつき攻撃モーションが4種類×3(強気、弱気、射精）と
+待機モーションが3種類（強気、弱気、絶頂）あります。</t>
+  </si>
+  <si>
+    <t>ID21、22、33は例外です。
+飲み込まれアニメなど一部表示できないアニメもあります。
+また、本編で未使用のアニメもあります。</t>
+  </si>
+  <si>
+    <t>『アニメを見る』を選択するとウィンドウが非表示になり
+方向キーを押すだけで表情や再生速度、射精アニメを
+自由に変更できます。</t>
+  </si>
+  <si>
+    <t>上キー：射精アニメ切替　下キー：表情切替
+右キー：再生速度変更　　左キー：モーション変更
+SHIFT ：キャラID変更　　</t>
+  </si>
+  <si>
+    <t>PageUP  ：キャラクターID +1
+PageDown：キャラクターID -1
+キャンセルキー：終了/操作説明の非表示</t>
+  </si>
+  <si>
+    <t>『効果音』の選択肢から音を変更することが出来ます。
+音は再生速度によって速さが自動で変更されます。</t>
+  </si>
+  <si>
+    <t>BGM変更</t>
+  </si>
+  <si>
+    <t>敗北シーンのBGMを変更できます。</t>
+  </si>
+  <si>
+    <t>変える</t>
+  </si>
+  <si>
+    <t>このままでいい</t>
+  </si>
+  <si>
+    <t>ミニマムビューアは使用できません。
+解放されると飲み込まれアニメなどを再生することができます。
+※第2部の日記を全て集めると解放</t>
+  </si>
+  <si>
+    <t>ミニマムビューアを使用しますか？</t>
+  </si>
+  <si>
+    <t>ウィッチラミア</t>
+  </si>
+  <si>
+    <t>マンティス</t>
+  </si>
+  <si>
+    <t>オーク</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1494,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,1113 +1502,2112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="D66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
         <v>81</v>
       </c>
-      <c r="D79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>190</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>196</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="B193" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>199</v>
+      </c>
+      <c r="B195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>203</v>
+      </c>
+      <c r="B199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>204</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>205</v>
+      </c>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="B203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>209</v>
+      </c>
+      <c r="B205" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>210</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>211</v>
+      </c>
+      <c r="B207" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>212</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>213</v>
+      </c>
+      <c r="B209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>214</v>
+      </c>
+      <c r="B210" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>227</v>
+      </c>
+      <c r="B220" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>229</v>
+      </c>
+      <c r="B222" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map136.xlsx
+++ b/data/Map136.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3E8E7C-22F5-40EC-AFAE-BD2B5977C511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="590">
   <si>
     <t>アーコ</t>
   </si>
@@ -191,11 +197,6 @@
 搾られたり搾られなかったりして探して見てくださいね！</t>
   </si>
   <si>
-    <t>現在のエンディング数は4つです。
-SAN値によってイベントが発生したりしなかったりしますので
-搾られたり搾られなかったりして探して見てくださいね！</t>
-  </si>
-  <si>
     <t>また、今回は丸飲みサークル\C[3]D-gateのCamelさん\C[0]から
 小説を頂いたのでゲーム内でイベントにしてみました！
 ぜひ見てくださいませ！※女主人公限定</t>
@@ -722,10 +723,6 @@
 全て読むと2部シナリオが解放される</t>
   </si>
   <si>
-    <t>→日記
-一度読むと解放</t>
-  </si>
-  <si>
     <t>ライムの日記
 宝物</t>
   </si>
@@ -814,10 +811,6 @@
   </si>
   <si>
     <t>アーコの帳簿
-アーコに70000G貢ぐとアーコの近くに帳簿が出現</t>
-  </si>
-  <si>
-    <t>アーコの帳簿
 レストランを開こう</t>
   </si>
   <si>
@@ -826,19 +819,11 @@
   </si>
   <si>
     <t>ライムの日記
-※ライム依存度が4以上でライムの部屋に出現</t>
-  </si>
-  <si>
-    <t>ライムの日記
 脱走者</t>
   </si>
   <si>
     <t>シィナの落書き帳
 ※シィナ依存度が3以上でシィナの部屋に出現</t>
-  </si>
-  <si>
-    <t>シィナの落書き帳
-※シィナ依存度が4以上でシィナの部屋に出現</t>
   </si>
   <si>
     <t>シィナの落書き帳
@@ -1156,19 +1141,1062 @@
   </si>
   <si>
     <t>オーク</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt; This is the Game Clear Room.
+What kind of ending did you get this time?
+Did you cum lots?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Did you want something?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;ノラの時のしぃにゃんは今よりもっと尖ってたよ。
+人間に媚びた方が絶対楽にご飯食べられるのに。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Why are you covering your eyes?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;\n[1], you have a sister, right?
+No, that was the last run.
+This one... Next one?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I think I'll be able to build my own shop soon.
+I'll be able to stock up with the cash you got for me,
+plus all the stuff I took from the mansion.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;It's sad when people die,
+but the people who are drained by succubi at
+least die feeling really good.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;But is that really ok?
+I think about that sometimes.
+I'm really not sure.... Such is life.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;People who like footjobs are all masochists.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I despise fighting.
+Everything can be settled with money.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Sometimes you just wanna get drunk.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Is there anything you don't enjoy?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Alcoholic.</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;What would you like to buy?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Haah. Did you just come to window shop or something?
+Hmmph!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Thank you for your purchase-!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Hmm.</t>
+  </si>
+  <si>
+    <t>You haven't unlocked ending 2.</t>
+  </si>
+  <si>
+    <t>Ending 2: 『Succubus Hunter』
+・Defeat everyone</t>
+  </si>
+  <si>
+    <t>You completed your mission as a Succubus Hunter.
+Will Shina and Lime return to their old
+lives as a cat and slime? Or…</t>
+  </si>
+  <si>
+    <t>You haven't unlocked ending 3.
+・Let yourself be drained,\nand let your SAN go below 0.</t>
+  </si>
+  <si>
+    <t>Ending 3: 『Semen Slave Siblings』
+・Let your SAN become a negative number.</t>
+  </si>
+  <si>
+    <t>Eat, sleep, and be pleasured, every single day.
+What more could anyone want?</t>
+  </si>
+  <si>
+    <t>You haven't unlocked ending 4.
+・Escape</t>
+  </si>
+  <si>
+    <t>Ending 4: 『Rescue Mission Failed』
+・Escape on your own.</t>
+  </si>
+  <si>
+    <t>\n[1] escaped on her own.
+She assembled a rescue team and came back,\nbut Alsto was already…</t>
+  </si>
+  <si>
+    <t>\n[1] escaped on his own.
+He assembled a rescue team and came back,\nbut Meria was already...</t>
+  </si>
+  <si>
+    <t>You haven't unlocked ending 1.
+・Escape before the final battle.</t>
+  </si>
+  <si>
+    <t>Ending 1: 『True End』
+・Escape before the final battle with Lily.</t>
+  </si>
+  <si>
+    <t>There's no need to fight. As long as the siblings
+are able to escape the mansion.</t>
+  </si>
+  <si>
+    <t>The 3 succubi vow to take revenge
+upon \n[1] someday…</t>
+  </si>
+  <si>
+    <t>To be continued in Succubus Tamer 1.</t>
+  </si>
+  <si>
+    <t>Afterword</t>
+  </si>
+  <si>
+    <t>Unlock all reminiscence</t>
+  </si>
+  <si>
+    <t>Do nothing</t>
+  </si>
+  <si>
+    <t>This time, \C[3]Camel from Circle D-Gate\C[0] created a vore short story
+for me, so I turned it into an event in the game!
+Please have a look! ※Restricted to female protagonist</t>
+  </si>
+  <si>
+    <t>There are currently 4 endings.
+Events occur based on your current SAN. Be sure to
+find them all, and get squeezed dry every which way!</t>
+  </si>
+  <si>
+    <t>Thank you for playing
+『Captured Alstomeria』
+Did you enjoy it?</t>
+  </si>
+  <si>
+    <t>This will unlock all memories.
+Once unlocked, you may not return to the main story.
+You cannot see the temptation events before the scenes.</t>
+  </si>
+  <si>
+    <t>Once revealed, the unlock requirements will be visible.
+If you're having difficulties, it may be a good
+idea to have a look.</t>
+  </si>
+  <si>
+    <t>Unlock all</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Are you really sure?
+※Miniature and Animation viewers won't be unlocked</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Actually, no</t>
+  </si>
+  <si>
+    <t>Start a new run</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Skip the opening until after meeting Ako?</t>
+  </si>
+  <si>
+    <t>Don't skip</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>You will start the game over.
+Key items and progression flags will all be reset.</t>
+  </si>
+  <si>
+    <t>Carried over:
+・Endings ・Learned skills ・Boosted stats
+・Donations to Ako ・Non-key items ・Money</t>
+  </si>
+  <si>
+    <t>Not carried over:
+・Weapons ・Key items ・Level</t>
+  </si>
+  <si>
+    <t>Start from part 2</t>
+  </si>
+  <si>
+    <t>Reminisce</t>
+  </si>
+  <si>
+    <t>Shina - Found during initial jailbreak - Cowgirl</t>
+  </si>
+  <si>
+    <t>Shina - Temptation - Masturbation</t>
+  </si>
+  <si>
+    <t>Shina - Captured - Handjob
+・Animation changes for female protag</t>
+  </si>
+  <si>
+    <t>Shina - Bathroom - Pantyjob</t>
+  </si>
+  <si>
+    <t>Shina - Darkness - Cowgirl</t>
+  </si>
+  <si>
+    <t>Shina - Darkness - Intercrural</t>
+  </si>
+  <si>
+    <t>Shina - Captured - Blowjob</t>
+  </si>
+  <si>
+    <t>Shina - Captured - Face sitting</t>
+  </si>
+  <si>
+    <t>Shina - Captured - Face stepping</t>
+  </si>
+  <si>
+    <t>Shina - Room event - Doggy style</t>
+  </si>
+  <si>
+    <t>Shina - Flower pot - Cheek nuzzle</t>
+  </si>
+  <si>
+    <t>Lily - Temptation - Masturbation</t>
+  </si>
+  <si>
+    <t>Lily - Captured - Footjob</t>
+  </si>
+  <si>
+    <t>Lily - Darkness - Kiss</t>
+  </si>
+  <si>
+    <t>Lily - Darkness - Footjob</t>
+  </si>
+  <si>
+    <t>Lily - Captured - Intercrural</t>
+  </si>
+  <si>
+    <t>Lily - Captured - Straddling kiss</t>
+  </si>
+  <si>
+    <t>Lily - Captured - Presenting ass</t>
+  </si>
+  <si>
+    <t>Lily - Fire tome - Blowjob</t>
+  </si>
+  <si>
+    <t>Lily - Ice tome - Footjob</t>
+  </si>
+  <si>
+    <t>Lime - Captured - Paizuri</t>
+  </si>
+  <si>
+    <t>Lime - Temptation - Paizuri</t>
+  </si>
+  <si>
+    <t>Lime - Darkness - Paizuri</t>
+  </si>
+  <si>
+    <t>Lime - Darkness - Foot insertion</t>
+  </si>
+  <si>
+    <t>Lime - Captured - Puff Puff</t>
+  </si>
+  <si>
+    <t>Lime - Captured - Footjob</t>
+  </si>
+  <si>
+    <t>Lime - Captured - Lying paizuri</t>
+  </si>
+  <si>
+    <t>Lime - Luxurious key - Nipple fucking</t>
+  </si>
+  <si>
+    <t>Santa</t>
+  </si>
+  <si>
+    <t>Ako item snatch-up
+Occurs rarely when picking up an item.</t>
+  </si>
+  <si>
+    <t>Ako - Stealing - Kiss</t>
+  </si>
+  <si>
+    <t>Lily, Shina, Lime
+Failed the first hiding event</t>
+  </si>
+  <si>
+    <t>Lily, Shina, Lime
+Caught in the bath</t>
+  </si>
+  <si>
+    <t>Lily, Shina, Lime
+HP reached 0</t>
+  </si>
+  <si>
+    <t>Lily, Shina, Lime
+Caught in the library</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I taught Santa how to speak!
+I speak cat too. I'm meow-tilingual.
+Do you want to learn to speak cat?</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Feeling tired?
+Want to have a rest?</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Tell me something</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;You must have ejaculated around \v[502] times.
+I might have missed a few.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;I-is that so...
+Interesting. (I could have sworn it was more...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;It's all part of being a Hunter.</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;I don't know what it's like in the industry.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Hey, don't tell me that!
+I-it's bound to happen during a mission…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;What did you say!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Take care.</t>
+  </si>
+  <si>
+    <t>Meria Paizuri through cage
+Male protagonist, speak while SAN is high and energy is low</t>
+  </si>
+  <si>
+    <t>Meria
+Speak while SAN is high and energy is low
+Paizuri through cage</t>
+  </si>
+  <si>
+    <t>Meria - High SAN - Speak while energy is low
+Paizuri through cage
+※Male protagonist only</t>
+  </si>
+  <si>
+    <t>Meria - SAN reached 0
+※Female protagonist only</t>
+  </si>
+  <si>
+    <t>Meria
+SAN reached 0
+Fingering</t>
+  </si>
+  <si>
+    <t>Semen Slave Meria Battle
+Unlocked by male protagonist by winning battle after\nSAN reaches 0</t>
+  </si>
+  <si>
+    <t>Meria - Semen Slave
+Male protgaonist - SAN reached 0
+Sex battle</t>
+  </si>
+  <si>
+    <t>Meria
+Defeat Meria after SAN reaches 0
+※Male protagonist only</t>
+  </si>
+  <si>
+    <t>Lily - 1st battle
+・Normal defeat　・Begging defeat</t>
+  </si>
+  <si>
+    <t>Lily - 2nd battle
+・Normal defeat ・Deadly defeat
+・Late stage defeat ・Begging defeat</t>
+  </si>
+  <si>
+    <t>Shina - 1st battle
+・Normal defeat　・Begging defeat</t>
+  </si>
+  <si>
+    <t>Shina - 2nd battle
+・Normal defeat ・Deadly defeat
+・Late stage defeat ・Begging defeat</t>
+  </si>
+  <si>
+    <t>Lime - 1st battle
+・Normal defeat　・Begging defeat</t>
+  </si>
+  <si>
+    <t>Lime - 2nd battle
+・Normal defeat ・Deadly defeat
+・Late stage defeat ・Begging defeat</t>
+  </si>
+  <si>
+    <t>→Battle
+Collect your equipment and defeat them\nduring hunter phase to unlock</t>
+  </si>
+  <si>
+    <t>→Defeat scenes when captured
+Get caught and drained to unlock
+Changes at SAN 0～3、4～6、7～8、9～10</t>
+  </si>
+  <si>
+    <t>→Event defeat scenes
+Unlocked by being drained in a temptation event \nor trap after collecting an item</t>
+  </si>
+  <si>
+    <t>→Ako</t>
+  </si>
+  <si>
+    <t>→Special scenes
+These scenes differ between male and female protagonists</t>
+  </si>
+  <si>
+    <t>Ako - Battle</t>
+  </si>
+  <si>
+    <t>Ako - Money drain event</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Brother.
+Want to switch with me?</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Don't switch</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Right!
+It's my turn!
+Just sit back and watch, brother!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ok. I'm gonna do it!</t>
+  </si>
+  <si>
+    <t>※Face graphic, player animation and voice are ON.
+If not needed, please switch OFF in options.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Hmph.
+You just want to have more sex.
+You're a perv, brother.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;You can change your main character.
+I think a change is good once in a while.
+I want to be the main character too.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Keep in mind, your name will reset to default.
+If you want to see face graphics or player animations,
+make those changes in the options menu.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Hey, \n[1].
+Did you want to swap out?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Let's go then.
+Just leave it to me.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Right, I'm gonna go all out.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Big brother is so cool.</t>
+  </si>
+  <si>
+    <t>※Face graphic is on, player animation is OFF.
+Please make the needed changes in the options menu.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;I want to get out of the cage sometime too.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;You can change your main character.
+It's good to change things up sometimes.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Keep in mind, your name will reset to default.
+The face graphics and player animations settings will 
+change. Be careful.</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Pizza in the bath</t>
+  </si>
+  <si>
+    <t>Lime's Diary</t>
+  </si>
+  <si>
+    <t>See a hint</t>
+  </si>
+  <si>
+    <t>Search by yourself</t>
+  </si>
+  <si>
+    <t>Found in the bath house.</t>
+  </si>
+  <si>
+    <t>See answer</t>
+  </si>
+  <si>
+    <t>Hookshot to the left side of the bath house.
+Extinguish all fireplaces using ice attacks.</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Pointless argument</t>
+  </si>
+  <si>
+    <t>Found in the parlor.</t>
+  </si>
+  <si>
+    <t>Extinguish the fireplace in the parlor with an
+ice attack. Enter the warehouse via the hidden passage.</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Being watched…</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Jailbreak seduction</t>
+  </si>
+  <si>
+    <t>Found on the balcony.</t>
+  </si>
+  <si>
+    <t>From the left end of the balcony, with Plus Shot 
+equipped, fire the hookshot to the chimney.</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+What is love?</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Shina's semen slave</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Calling the search</t>
+  </si>
+  <si>
+    <t>Found in the maid's room.</t>
+  </si>
+  <si>
+    <t>Examine the bear on the lower right bed multiple times.</t>
+  </si>
+  <si>
+    <t>→Diary
+Read once to unlock.
+Read them all to unlock part 2.</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Treasure</t>
+  </si>
+  <si>
+    <t>Found in the warehouse.</t>
+  </si>
+  <si>
+    <t>Read it by turning on the light.</t>
+  </si>
+  <si>
+    <t>→All 3 succubi</t>
+  </si>
+  <si>
+    <t>Lime - Midnight snack
+Lime's reliance is 3 or higher
+Sleep in prison cell</t>
+  </si>
+  <si>
+    <t>Shina - Master's room - Penis kissing</t>
+  </si>
+  <si>
+    <t>Lily - Shina - Double footjob
+Lily and Shina's reliance is 3 or higher.
+Sleep in prison cell.</t>
+  </si>
+  <si>
+    <t>Meria's midnight visit
+Male protagonist. Sleep in prison cell while \nSAN is 3 or lower</t>
+  </si>
+  <si>
+    <t>Meria - Midnight visit
+Male protagonist - Sleep while SAN is 3 or lower
+Missionary position</t>
+  </si>
+  <si>
+    <t>Meria's midnight visit
+Sleep in prison cell while SAN is 3 or lower
+※Male protagonist only</t>
+  </si>
+  <si>
+    <t>You can change your level.</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+The ledger will appear near Ako after giving her 15000G.</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+Reunion</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+The ledger will appear near Ako after giving her 30000G.</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+The Usual</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+The ledger will appear near Ako after giving her 50000G.</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+Opening a restaurant</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+※Found in Lime's room when Lime's reliance is 3 or higher.</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Fugitive</t>
+  </si>
+  <si>
+    <t>Lily - Shrunken battle
+・Breath defeat ・Licking defeat
+・Sucking defeat ・Munching defeat (vore)</t>
+  </si>
+  <si>
+    <t>→Special events</t>
+  </si>
+  <si>
+    <t>Meria's french kiss
+Male protagonist, speak while SAN is 3 or less, \nand energy is low.</t>
+  </si>
+  <si>
+    <t>Meria 
+Speak while SAN is 3 or less, and energy is low
+French kiss through cage</t>
+  </si>
+  <si>
+    <t>Meria - SAN 3 or less - Speak while energy is low
+French kiss through cage
+※Male protagonist only</t>
+  </si>
+  <si>
+    <t>Lily vore
+Written by D-gate
+※Female protagonist only</t>
+  </si>
+  <si>
+    <t>Lily vore
+Written by D-gate
+※Female protagonist</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+Succubus ecology</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+How to use the machine</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+Succubus-ification success!</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+Self introduction</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+Hostage Experimentation - Part 1</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+Hostage Experimentation - Part 2
+※Event changes between male and female player</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+Creative cuisine</t>
+  </si>
+  <si>
+    <t>Chocolate's Lab Records
+Raising the banner</t>
+  </si>
+  <si>
+    <t>After defeating Chocolate and Velvet, the lab collapsed.
+Lily and her friends have no home,
+but they're getting by happily.</t>
+  </si>
+  <si>
+    <t>Humans and succubi are still enemies, but they feel like
+they understand each other a little better. The siblings
+and the 3 succubi go their separate ways.</t>
+  </si>
+  <si>
+    <t>You haven't unlocked ending 5.
+・Read all of Lily's diaries before defeating her.
+・Clear act 2</t>
+  </si>
+  <si>
+    <t>Ending : 『The Difference Between Humans and Succubi』
+・Uncover the truth behind the mansion, and rescue everyone</t>
+  </si>
+  <si>
+    <t>→Part 2
+Grunts</t>
+  </si>
+  <si>
+    <t>→Part 2 Diaries
+Read them all to unlock Shrunken Viewer</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Strong Tiger
+Unlocked by defeating without getting her \nhigh on silver vine</t>
+  </si>
+  <si>
+    <t>Strong Tiger
+・Normal defeat</t>
+  </si>
+  <si>
+    <t>Weak Tiger
+・Normal defeat</t>
+  </si>
+  <si>
+    <t>Orc
+・Normal defeat</t>
+  </si>
+  <si>
+    <t>Mantis
+・Normal defeat</t>
+  </si>
+  <si>
+    <t>Witch Lamia
+・Normal defeat</t>
+  </si>
+  <si>
+    <t>Tiger - Shrunken
+・Full body paizuri</t>
+  </si>
+  <si>
+    <t>Mantis - Shrunken
+・Swallowing blowjob</t>
+  </si>
+  <si>
+    <t>Orc - Shrunken
+・Full body insertion</t>
+  </si>
+  <si>
+    <t>Witch Lamia - Shrunken
+・Full body paizuri</t>
+  </si>
+  <si>
+    <t>→Part 2
+Boss</t>
+  </si>
+  <si>
+    <t>Chocolate - Sex battle
+・Normal defeat</t>
+  </si>
+  <si>
+    <t>Chocolate - Caught(1) - Face licking</t>
+  </si>
+  <si>
+    <t>Chocolate - Caught(2) - Puff Puff</t>
+  </si>
+  <si>
+    <t>Chocolate - Aphrodisiac - Cunnilingus</t>
+  </si>
+  <si>
+    <t>Chocolate - Final temptation - Cowgirl</t>
+  </si>
+  <si>
+    <t>Velvet - Caught(1) - Kiss</t>
+  </si>
+  <si>
+    <t>Velvet - Caught(2) - Handjob</t>
+  </si>
+  <si>
+    <t>Velvet - Long-distance temptation - Bare chest</t>
+  </si>
+  <si>
+    <t>Velvet - Begging insertion</t>
+  </si>
+  <si>
+    <t>Chocolate - Velvet - 0HP loss</t>
+  </si>
+  <si>
+    <t>Lily - Thank you - Kiss and handjob</t>
+  </si>
+  <si>
+    <t>→Other Diaries</t>
+  </si>
+  <si>
+    <t>Animation Viewer</t>
+  </si>
+  <si>
+    <t>Animation Viewer is not unlocked.
+Once unlocked, you can recall any animation in the game.
+※Unlocked by seeing all endings.</t>
+  </si>
+  <si>
+    <t>Use the Animation Viewer?
+※You can recall any animation in the game.</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Please select a character ID 1～33</t>
+  </si>
+  <si>
+    <t>Character ID</t>
+  </si>
+  <si>
+    <t>View animations</t>
+  </si>
+  <si>
+    <t>Sound effects</t>
+  </si>
+  <si>
+    <t>Standby animation</t>
+  </si>
+  <si>
+    <t>Read commentary</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>View controls</t>
+  </si>
+  <si>
+    <t>Hide controls</t>
+  </si>
+  <si>
+    <t>Paizuri</t>
+  </si>
+  <si>
+    <t>Pumping</t>
+  </si>
+  <si>
+    <t>Ejaculation sound</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Climax</t>
+  </si>
+  <si>
+    <t>First, select the character ID you want.
+Each ID has 4 attack motions, and a standby.
+There are 3 suboptions: (strong, weak, climax)</t>
+  </si>
+  <si>
+    <t>ID 21, 22, 33 are exceptions. Some animations
+cannot be displayed, such as swallowing animations.
+Some animations are not found in the story.</t>
+  </si>
+  <si>
+    <t>Pressing 『Watch animation』 will hide this window.
+Expression, playback speed, and ejaculation animation
+can be changed by pressing arrow keys.</t>
+  </si>
+  <si>
+    <t>Up key: Ejaculation animation Down key: Switch expression
+Right key: Playback speed Left key: Switch action
+Shift key: Change character ID</t>
+  </si>
+  <si>
+    <t>Page Up  ：Character ID +1
+Page Down：Character ID -1
+Cancel key：Exit/Hide instructions</t>
+  </si>
+  <si>
+    <t>You can change the sounds from 『Sound effects』.
+The speed of the sound adjusts to the playback speed.</t>
+  </si>
+  <si>
+    <t>You can change the BGM of the defeat scenes.</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>This is fine</t>
+  </si>
+  <si>
+    <t>Minimum Viewer is not available.
+Once unlocked, you can view all swallowing animations.
+※Unlocked by collecting all Part 2 diaries.</t>
+  </si>
+  <si>
+    <t>Use the Minimum Viewer?</t>
+  </si>
+  <si>
+    <t>Witch Lamia</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Shinyan was way nastier back when she was a cat.
+Even though it was way easier to eat by sucking up to a human.</t>
+  </si>
+  <si>
+    <t>Lily - Insertion challenge - Doggy style self-destruct</t>
+  </si>
+  <si>
+    <t>Lily - Insertion challenge - Doggy style surprise</t>
+  </si>
+  <si>
+    <t>\n&lt;Santa&gt;Succubi are dangerous, huh. At least you're not dead.</t>
+  </si>
+  <si>
+    <t>Meria</t>
+  </si>
+  <si>
+    <t>Alsto</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Misty Mansion Attack</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Meeting Shina</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Meeting Lime</t>
+  </si>
+  <si>
+    <t>Lime's Diary
+Delicious meals for semen slaves</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Stripes make a masochist</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Romance novels</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Lime-style diet</t>
+  </si>
+  <si>
+    <t>Meria's Diary - Unlocked by listening to Meria's past.
+As male protagonist, talk to her while SAN is high
+and energy is low.</t>
+  </si>
+  <si>
+    <t>Meria's Diary
+Attacked by a futanari succubus</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Knowledge VS Instinct</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Where did these orcs come from?</t>
+  </si>
+  <si>
+    <t>Shina's Scratchpad
+A cat's life</t>
+  </si>
+  <si>
+    <t>Shina's Scratchpad
+※Found in Shina's room when Shina's reliance is 3 or higher.</t>
+  </si>
+  <si>
+    <t>Handjob</t>
+  </si>
+  <si>
+    <t>Blowjob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1179,28 +2207,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1490,19 +2530,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="3" width="75.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1526,2102 +2567,3289 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="C49" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="C70" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="C74" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="C75" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="C76" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="C78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="C79" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="C81" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>90</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="C89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="C91" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>94</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="C93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>97</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="C97" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="C98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>101</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>102</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="C100" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>103</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="C101" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>104</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>105</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="C103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>106</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="C104" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>107</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="C105" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>108</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>109</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="C107" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>110</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="C108" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>111</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="C109" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>112</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>113</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="C111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>114</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="C112" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>115</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+      <c r="C113" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>116</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+      <c r="C114" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+      <c r="C115" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+      <c r="C116" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+      <c r="C117" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="C118" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="C119" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>122</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="C120" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>123</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="C121" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>124</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="C122" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>125</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="C123" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>126</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="C124" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>127</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="C125" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>128</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="C126" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>129</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="C127" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>130</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="C128" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>131</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="C129" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>132</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="C130" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>133</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="C131" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>134</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>135</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="C133" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>136</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="C134" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>137</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="C135" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>138</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="C136" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>139</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="C137" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>140</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="C138" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>141</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="C139" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>142</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="C140" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>143</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>144</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>145</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>146</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="C144" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>147</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+      <c r="C145" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>148</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+      <c r="C146" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>149</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+      <c r="C147" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>150</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+      <c r="C148" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>151</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="C149" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>152</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="C150" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>153</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="C151" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>154</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="C152" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>155</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="C153" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>156</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="C154" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>157</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+      <c r="C155" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>158</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+      <c r="C156" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>159</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+      <c r="C157" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>160</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+      <c r="C158" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>161</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="C159" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>162</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+      <c r="C160" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>163</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="C161" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>164</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+      <c r="C162" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>165</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="C163" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>166</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="C164" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>167</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="C165" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>168</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="C166" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>169</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="C167" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>170</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="C168" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>171</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="C169" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>172</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="C170" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B171" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B174" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="B175" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B176" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B178" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B179" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B180" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>183</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="C181" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B182" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="B183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>186</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="C184" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>187</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="C185" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>188</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="C186" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>189</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="C187" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>190</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B190" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B191" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>194</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B193" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>196</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B194" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="C194" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>197</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B195" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="C195" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>198</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B196" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="C196" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>199</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B197" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="C197" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B199" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>203</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B201" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="C201" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>204</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B202" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="C202" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>205</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B203" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+      <c r="C203" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>206</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B204" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="C204" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>207</v>
       </c>
-      <c r="B203" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>208</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B206" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+      <c r="C206" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>209</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B207" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="C207" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>210</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B208" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="C208" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>211</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B209" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="C209" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>212</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B210" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+      <c r="C210" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>213</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B212" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>214</v>
-      </c>
-      <c r="B210" t="s">
+      <c r="C212" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
-        <v>216</v>
-      </c>
-      <c r="B211" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+      <c r="B214" t="s">
         <v>215</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C214" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+      <c r="B215" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>218</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B216" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
-        <v>217</v>
-      </c>
-      <c r="B214" t="s">
+      <c r="C216" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+      <c r="B217" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>220</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B218" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+      <c r="C218" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>221</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
+      <c r="B220" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>223</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B221" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+      <c r="C221" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>224</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B222" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+      <c r="B223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>226</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B224" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+      <c r="C224" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>227</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B225" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+      <c r="C225" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>228</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B226" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+      <c r="C226" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>229</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B227" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+      <c r="C227" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B228" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+      <c r="C228" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B229" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+      <c r="C229" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B230" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
+      <c r="C230" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B231" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
+      <c r="C231" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B232" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+      <c r="C232" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
+      <c r="B233" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
+      <c r="B234" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
+      <c r="B235" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
+    <row r="237" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
+      <c r="B237" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
+      <c r="B238" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
+      <c r="B239" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
+      <c r="B240" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
+      <c r="B241" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
+      <c r="B242" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
+      <c r="B243" t="s">
+        <v>245</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
+      <c r="B244" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
+      <c r="B245" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
+      <c r="B246" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+      <c r="B247" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
+      <c r="B248" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
+      <c r="B249" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
+      <c r="B250" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
+      <c r="B251" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
+      <c r="B252" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
+      <c r="B253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+      <c r="B254" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
+      <c r="B255" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
+      <c r="B256" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
+      <c r="B257" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
+      <c r="B258" t="s">
+        <v>260</v>
+      </c>
+      <c r="C258" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
+      <c r="B259" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
+      <c r="B260" t="s">
+        <v>262</v>
+      </c>
+      <c r="C260" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
+      <c r="B261" t="s">
+        <v>263</v>
+      </c>
+      <c r="C261" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
+      <c r="B262" t="s">
+        <v>264</v>
+      </c>
+      <c r="C262" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
+      <c r="B263" t="s">
+        <v>265</v>
+      </c>
+      <c r="C263" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
+      <c r="B264" t="s">
+        <v>266</v>
+      </c>
+      <c r="C264" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+      <c r="B265" t="s">
+        <v>267</v>
+      </c>
+      <c r="C265" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
+      <c r="B266" t="s">
+        <v>268</v>
+      </c>
+      <c r="C266" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
+      <c r="B267" t="s">
+        <v>269</v>
+      </c>
+      <c r="C267" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
+      <c r="B268" t="s">
+        <v>270</v>
+      </c>
+      <c r="C268" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
+      <c r="B269" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
+      <c r="B270" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
+      <c r="B271" t="s">
+        <v>273</v>
+      </c>
+      <c r="C271" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
+      <c r="B272" t="s">
+        <v>274</v>
+      </c>
+      <c r="C272" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
+      <c r="B273" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
+      <c r="B274" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
+      <c r="B275" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
+      <c r="B276" t="s">
+        <v>278</v>
+      </c>
+      <c r="C276" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
+      <c r="B277" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
+      <c r="B278" t="s">
+        <v>280</v>
+      </c>
+      <c r="C278" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
+      <c r="B279" t="s">
+        <v>281</v>
+      </c>
+      <c r="C279" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
+      <c r="B280" t="s">
+        <v>282</v>
+      </c>
+      <c r="C280" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
+      <c r="B281" t="s">
+        <v>283</v>
+      </c>
+      <c r="C281" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
+      <c r="B283" t="s">
+        <v>285</v>
+      </c>
+      <c r="C283" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+      <c r="C284" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
+      <c r="B285" t="s">
+        <v>287</v>
+      </c>
+      <c r="C285" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
+      <c r="B286" t="s">
+        <v>288</v>
+      </c>
+      <c r="C286" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
+      <c r="B287" t="s">
+        <v>289</v>
+      </c>
+      <c r="C287" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
+      <c r="B288" t="s">
+        <v>290</v>
+      </c>
+      <c r="C288" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
+      <c r="B289" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
+      <c r="B290" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
+      <c r="B291" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
+      <c r="B292" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
+      <c r="B293" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
+      <c r="B294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
+      <c r="B295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
+      <c r="B297" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
+      <c r="B298" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
+      <c r="B299" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
+      <c r="B300" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
+      <c r="B301" t="s">
+        <v>303</v>
+      </c>
+      <c r="C301" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
+      <c r="B302" t="s">
+        <v>304</v>
+      </c>
+      <c r="C302" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
+      <c r="B303" t="s">
+        <v>305</v>
+      </c>
+      <c r="C303" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>311</v>
+      <c r="B304" t="s">
+        <v>306</v>
+      </c>
+      <c r="C304" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>